--- a/data/air_info/南京-上海.xlsx
+++ b/data/air_info/南京-上海.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD63E8-6B90-4FC4-9E4A-87FEA389B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B5D8E-56B8-4AE2-9E16-0697A941EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,15 +57,15 @@
     <t>航空信息</t>
   </si>
   <si>
-    <t>行程时间：55 分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吉祥航空经济舱HO 5373</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机票价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +449,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -470,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>0.35069444444444442</v>
@@ -490,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>869</v>
